--- a/target/classes/information.xlsx
+++ b/target/classes/information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\DarazWeb\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\DarazWeb\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE30E7-12ED-4862-98F9-19812A87388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53E7FBF-0FC8-4DFE-B86E-6E028C18BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7572" yWindow="3360" windowWidth="11124" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,10 +440,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>1997</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/information.xlsx
+++ b/target/classes/information.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\DarazWeb\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53E7FBF-0FC8-4DFE-B86E-6E028C18BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA6CDAA-E677-4927-BB87-BB0BE1A962B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7572" yWindow="3360" windowWidth="11124" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>fullname</t>
   </si>
@@ -55,6 +56,12 @@
   </si>
   <si>
     <t>mahmudur@Test123</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -385,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,4 +460,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900A809C-B36E-47EB-9256-63BDD5941333}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{58C3A53D-C05D-4A5D-8182-CF2F2F5109CE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{883EE680-C85B-42FC-ACED-041E89C6BA8F}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{ADF0E074-8512-4736-B6FB-0A6C019857C4}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{DA250DAA-00E7-4196-A2D1-147949786580}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{4F4FDD7B-C958-4280-967B-8638421162CD}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{AAABFF9A-6AB7-482B-AF07-D69A327091DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>